--- a/604_Sree Vamsee.xlsx
+++ b/604_Sree Vamsee.xlsx
@@ -419,480 +419,508 @@
         <v>GrandTotal</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" xml:space="preserve">
       <c r="A2" t="str">
         <v>LAKSHMI MEDICAL CORPORATION[AP0003]</v>
       </c>
       <c r="B2" t="str">
         <v>604/23/T1-1762</v>
       </c>
-      <c r="C2" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C2" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D2" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E2" t="str">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>78100</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
       <c r="A3" t="str">
         <v>CITY MEDICAL AGENCIES[AP0004]</v>
       </c>
       <c r="B3" t="str">
         <v>604/23/T1-1763</v>
       </c>
-      <c r="C3" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C3" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D3" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E3" t="str">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>29600</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
       <c r="A4" t="str">
         <v>CITY MEDICAL AGENCIES[AP0004]</v>
       </c>
       <c r="B4" t="str">
         <v>604/23/T1-1764</v>
       </c>
-      <c r="C4" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C4" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D4" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E4" t="str">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
       <c r="A5" t="str">
         <v>K.JAGAJJANANI RAO &amp; SONS[AP0012]</v>
       </c>
       <c r="B5" t="str">
         <v>604/23/T1-1765</v>
       </c>
-      <c r="C5" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C5" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D5" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E5" t="str">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
       <c r="A6" t="str">
         <v>SREE VIJAYALAKSHMI MEDICAL AGE[AP0032]</v>
       </c>
       <c r="B6" t="str">
         <v>604/23/T1-1766</v>
       </c>
-      <c r="C6" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C6" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D6" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E6" t="str">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
       <c r="A7" t="str">
         <v>SREE VIJAYALAKSHMI MEDICAL AGE[AP0032]</v>
       </c>
       <c r="B7" t="str">
         <v>604/23/T1-1767</v>
       </c>
-      <c r="C7" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C7" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D7" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E7" t="str">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
       <c r="A8" t="str">
         <v>SREE KRISHNA PHARMACEUTICALS[AP0040]</v>
       </c>
       <c r="B8" t="str">
         <v>604/23/T1-1768</v>
       </c>
-      <c r="C8" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C8" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D8" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E8" t="str">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
       <c r="A9" t="str">
         <v>VINAYAKA MEDICAL AGENCIES[AP0093]</v>
       </c>
       <c r="B9" t="str">
         <v>604/23/T1-1769</v>
       </c>
-      <c r="C9" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C9" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D9" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E9" t="str">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
       <c r="A10" t="str">
         <v>SREE TRIVENI MEDICAL AGENCIES[AP0097]</v>
       </c>
       <c r="B10" t="str">
         <v>604/23/T1-1770</v>
       </c>
-      <c r="C10" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C10" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D10" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E10" t="str">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
       <c r="A11" t="str">
         <v>SREE TRIVENI MEDICAL AGENCIES[AP0097]</v>
       </c>
       <c r="B11" t="str">
         <v>604/23/T1-1771</v>
       </c>
-      <c r="C11" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C11" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D11" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E11" t="str">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>64700</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
       <c r="A12" t="str">
         <v>SREE TRIVENI MEDICAL AGENCIES[AP0097]</v>
       </c>
       <c r="B12" t="str">
         <v>604/23/T1-1772</v>
       </c>
-      <c r="C12" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C12" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D12" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E12" t="str">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>47600</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
       <c r="A13" t="str">
         <v>NEW VENKATESWARA MEDICALS[AP0111]</v>
       </c>
       <c r="B13" t="str">
         <v>604/23/T1-1773</v>
       </c>
-      <c r="C13" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C13" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D13" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E13" t="str">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
       <c r="A14" t="str">
         <v>NEW VENKATESWARA MEDICALS[AP0111]</v>
       </c>
       <c r="B14" t="str">
         <v>604/23/T1-1774</v>
       </c>
-      <c r="C14" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C14" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D14" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E14" t="str">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>26800</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
       <c r="A15" t="str">
         <v>NEW VENKATESWARA MEDICALS[AP0111]</v>
       </c>
       <c r="B15" t="str">
         <v>604/23/T1-1775</v>
       </c>
-      <c r="C15" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C15" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D15" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E15" t="str">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
       <c r="A16" t="str">
         <v>NEW VENKATESWARA MEDICALS[AP0111]</v>
       </c>
       <c r="B16" t="str">
         <v>604/23/T1-1776</v>
       </c>
-      <c r="C16" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C16" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D16" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E16" t="str">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
       <c r="A17" t="str">
         <v>SASI MEDICAL NEEDS[AP0120]</v>
       </c>
       <c r="B17" t="str">
         <v>604/23/T1-1777</v>
       </c>
-      <c r="C17" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C17" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D17" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E17" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
       <c r="A18" t="str">
         <v>SASI MEDICAL NEEDS[AP0120]</v>
       </c>
       <c r="B18" t="str">
         <v>604/23/T1-1778</v>
       </c>
-      <c r="C18" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C18" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D18" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E18" t="str">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>21300</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
       <c r="A19" t="str">
         <v>SASI MEDICAL NEEDS[AP0120]</v>
       </c>
       <c r="B19" t="str">
         <v>604/23/T1-1779</v>
       </c>
-      <c r="C19" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C19" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D19" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E19" t="str">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>12700</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
       <c r="A20" t="str">
         <v>HARIKA MEDICAL AGENCIES[AP0170]</v>
       </c>
       <c r="B20" t="str">
         <v>604/23/T1-1780</v>
       </c>
-      <c r="C20" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C20" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D20" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E20" t="str">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
       <c r="A21" t="str">
         <v>SANATH MEDICAL AGENCIES[AP0196]</v>
       </c>
       <c r="B21" t="str">
         <v>604/23/T1-1781</v>
       </c>
-      <c r="C21" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C21" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D21" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E21" t="str">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
       <c r="A22" t="str">
         <v>SANATH MEDICAL AGENCIES[AP0196]</v>
       </c>
       <c r="B22" t="str">
         <v>604/23/T1-1782</v>
       </c>
-      <c r="C22" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C22" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D22" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E22" t="str">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>33200</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
       <c r="A23" t="str">
         <v>KRISHNA MED DISTRIBUTORS[AP0214]</v>
       </c>
       <c r="B23" t="str">
         <v>604/23/T1-1783</v>
       </c>
-      <c r="C23" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D23" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E23" t="str">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
       <c r="A24" t="str">
         <v>KRISHNA MED DISTRIBUTORS[AP0214]</v>
       </c>
       <c r="B24" t="str">
         <v>604/23/T1-1784</v>
       </c>
-      <c r="C24" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C24" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D24" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E24" t="str">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
       <c r="A25" t="str">
         <v>SRI LAKSHMI SUVARCHALA MEDICAL[AP0220]</v>
       </c>
       <c r="B25" t="str">
         <v>604/23/T1-1785</v>
       </c>
-      <c r="C25" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C25" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D25" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E25" t="str">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>24100</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
       <c r="A26" t="str">
         <v>BHAVYA MEDICAL AGENCIES[AP0222]</v>
       </c>
       <c r="B26" t="str">
         <v>604/23/T1-1786</v>
       </c>
-      <c r="C26" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D26" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E26" t="str">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>53800</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
       <c r="A27" t="str">
         <v>MADHU MEDICAL AGENCIES[AP0233]</v>
       </c>
       <c r="B27" t="str">
         <v>604/23/T1-1787</v>
       </c>
-      <c r="C27" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C27" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D27" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E27" t="str">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>16100</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
       <c r="A28" t="str">
         <v>SRI ARUN MEDICAL AGENCIES[AP0240]</v>
       </c>
       <c r="B28" t="str">
         <v>604/23/T1-1788</v>
       </c>
-      <c r="C28" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C28" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D28" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E28" t="str">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
       <c r="A29" t="str">
         <v>NAVEENA MEDICAL DISTRIBUTORS[AP0252]</v>
       </c>
       <c r="B29" t="str">
         <v>604/23/T1-1789</v>
       </c>
-      <c r="C29" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C29" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D29" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E29" t="str">
-        <v>55</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="30" xml:space="preserve">
@@ -903,14 +931,15 @@
       <c r="B30" t="str">
         <v>604/23/T1-1790</v>
       </c>
-      <c r="C30" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C30" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D30" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E30" t="str">
-        <v>131</v>
+        <v>13100</v>
       </c>
     </row>
   </sheetData>
